--- a/data/RelaxationExampleData_rslt/RelaxationExampleData_rslt.xlsx
+++ b/data/RelaxationExampleData_rslt/RelaxationExampleData_rslt.xlsx
@@ -13,7 +13,7 @@
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="SubsetsRslt" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
